--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
@@ -489,57 +489,57 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>904815335</v>
+        <v>1833458762</v>
       </c>
       <c r="B4" s="3">
-        <v>1930332635</v>
+        <v>-1314513662</v>
       </c>
       <c r="C4" s="3">
-        <v>-217314462</v>
+        <v>-764457537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>1699267833</v>
+        <v>-945156383</v>
       </c>
       <c r="B5" s="3">
-        <v>-824851563</v>
+        <v>-1382448832</v>
       </c>
       <c r="C5" s="3">
-        <v>764955609</v>
+        <v>2118059982</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>155849596</v>
+        <v>150456452</v>
       </c>
       <c r="B6" s="3">
-        <v>1181717926</v>
+        <v>139913362</v>
       </c>
       <c r="C6" s="3">
-        <v>764955609</v>
+        <v>2118059982</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>162792376</v>
+        <v>85954043</v>
       </c>
       <c r="B7" s="3">
-        <v>-9716690</v>
+        <v>-901086922</v>
       </c>
       <c r="C7" s="3">
-        <v>764955609</v>
+        <v>2118059982</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>923338692</v>
+        <v>105118418</v>
       </c>
       <c r="B8" s="3">
-        <v>-1437778274</v>
+        <v>2125618822</v>
       </c>
       <c r="C8" s="3">
-        <v>-887612720</v>
+        <v>-1278219496</v>
       </c>
     </row>
   </sheetData>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
@@ -492,7 +492,7 @@
         <v>1833458762</v>
       </c>
       <c r="B4" s="3">
-        <v>-1314513662</v>
+        <v>-1569711006</v>
       </c>
       <c r="C4" s="3">
         <v>-764457537</v>
@@ -503,7 +503,7 @@
         <v>-945156383</v>
       </c>
       <c r="B5" s="3">
-        <v>-1382448832</v>
+        <v>-1023799960</v>
       </c>
       <c r="C5" s="3">
         <v>2118059982</v>
@@ -514,7 +514,7 @@
         <v>150456452</v>
       </c>
       <c r="B6" s="3">
-        <v>139913362</v>
+        <v>-1040212945</v>
       </c>
       <c r="C6" s="3">
         <v>2118059982</v>
@@ -525,7 +525,7 @@
         <v>85954043</v>
       </c>
       <c r="B7" s="3">
-        <v>-901086922</v>
+        <v>1051206834</v>
       </c>
       <c r="C7" s="3">
         <v>2118059982</v>
@@ -536,7 +536,7 @@
         <v>105118418</v>
       </c>
       <c r="B8" s="3">
-        <v>2125618822</v>
+        <v>-807250027</v>
       </c>
       <c r="C8" s="3">
         <v>-1278219496</v>
